--- a/maps/KY/KY20C_candidates.xlsx
+++ b/maps/KY/KY20C_candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/KY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C68EEFD-EBF0-D541-BD88-D4B9C0763EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B658E65-D63B-D54E-90E2-D1579ECE2DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -141,15 +141,9 @@
     <t>KY20C_I056K01N06</t>
   </si>
   <si>
-    <t>0.001346</t>
-  </si>
-  <si>
     <t>KY20C_I062K01N06</t>
   </si>
   <si>
-    <t>0.003791</t>
-  </si>
-  <si>
     <t>KY20C_I038K01N06</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>KY20C_I026K01N06</t>
   </si>
   <si>
-    <t>0.008699</t>
-  </si>
-  <si>
     <t>KY20C_I075K01N06</t>
   </si>
   <si>
@@ -399,27 +390,15 @@
     <t>KY20C_I072K01N06</t>
   </si>
   <si>
-    <t>0.047059</t>
-  </si>
-  <si>
     <t>KY20C_I099K01N06</t>
   </si>
   <si>
-    <t>0.038208</t>
-  </si>
-  <si>
     <t>KY20C_I079K01N06</t>
   </si>
   <si>
-    <t>0.036692</t>
-  </si>
-  <si>
     <t>KY20C_I045K01N06</t>
   </si>
   <si>
-    <t>0.037585</t>
-  </si>
-  <si>
     <t>KY20C_I061K01N06</t>
   </si>
   <si>
@@ -435,58 +414,163 @@
     <t>KY20C_I094K01N06</t>
   </si>
   <si>
-    <t>0.037048</t>
-  </si>
-  <si>
     <t>KY20C_I084K01N06</t>
   </si>
   <si>
-    <t>0.035229</t>
-  </si>
-  <si>
     <t>KY20C_I022K01N06</t>
   </si>
   <si>
-    <t>0.039018</t>
-  </si>
-  <si>
     <t>KY20C_I080K01N06</t>
   </si>
   <si>
-    <t>0.031609</t>
-  </si>
-  <si>
     <t>KY20C_I019K01N06</t>
   </si>
   <si>
-    <t>0.036962</t>
-  </si>
-  <si>
     <t>KY20C_I058K01N06</t>
   </si>
   <si>
     <t>KY20C_I024K01N06</t>
   </si>
   <si>
-    <t>0.056360</t>
-  </si>
-  <si>
     <t>KY20C_I001K01N06</t>
   </si>
   <si>
-    <t>0.058035</t>
-  </si>
-  <si>
     <t>KY20C_I007K01N06</t>
   </si>
   <si>
-    <t>0.051180</t>
-  </si>
-  <si>
     <t>KY20C_I033K01N06</t>
   </si>
   <si>
-    <t>0.124401</t>
+    <t>0.001677</t>
+  </si>
+  <si>
+    <t>0.007909</t>
+  </si>
+  <si>
+    <t>0.008304</t>
+  </si>
+  <si>
+    <t>0.043320</t>
+  </si>
+  <si>
+    <t>0.039565</t>
+  </si>
+  <si>
+    <t>0.016163</t>
+  </si>
+  <si>
+    <t>0.044589</t>
+  </si>
+  <si>
+    <t>0.017585</t>
+  </si>
+  <si>
+    <t>0.037211</t>
+  </si>
+  <si>
+    <t>0.024247</t>
+  </si>
+  <si>
+    <t>0.047993</t>
+  </si>
+  <si>
+    <t>0.036691</t>
+  </si>
+  <si>
+    <t>0.045836</t>
+  </si>
+  <si>
+    <t>0.053274</t>
+  </si>
+  <si>
+    <t>0.054758</t>
+  </si>
+  <si>
+    <t>0.058255</t>
+  </si>
+  <si>
+    <t>0.053179</t>
+  </si>
+  <si>
+    <t>0.062537</t>
+  </si>
+  <si>
+    <t>0.067151</t>
+  </si>
+  <si>
+    <t>0.078004</t>
+  </si>
+  <si>
+    <t>0.073314</t>
+  </si>
+  <si>
+    <t>0.081026</t>
+  </si>
+  <si>
+    <t>0.076130</t>
+  </si>
+  <si>
+    <t>0.088175</t>
+  </si>
+  <si>
+    <t>0.090225</t>
+  </si>
+  <si>
+    <t>0.089266</t>
+  </si>
+  <si>
+    <t>0.102444</t>
+  </si>
+  <si>
+    <t>0.109352</t>
+  </si>
+  <si>
+    <t>0.114090</t>
+  </si>
+  <si>
+    <t>0.125388</t>
+  </si>
+  <si>
+    <t>0.128984</t>
+  </si>
+  <si>
+    <t>0.114269</t>
+  </si>
+  <si>
+    <t>0.141217</t>
+  </si>
+  <si>
+    <t>0.139139</t>
+  </si>
+  <si>
+    <t>0.139424</t>
+  </si>
+  <si>
+    <t>0.139649</t>
+  </si>
+  <si>
+    <t>0.140255</t>
+  </si>
+  <si>
+    <t>0.134920</t>
+  </si>
+  <si>
+    <t>0.132568</t>
+  </si>
+  <si>
+    <t>0.141976</t>
+  </si>
+  <si>
+    <t>0.154814</t>
+  </si>
+  <si>
+    <t>0.178206</t>
+  </si>
+  <si>
+    <t>0.181705</t>
+  </si>
+  <si>
+    <t>0.183879</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1061,7 @@
       </c>
       <c r="D4" s="8">
         <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.94275299999999995</v>
+        <v>0.91792099999999999</v>
       </c>
       <c r="E4" s="8">
         <f>MIN(DATA!H$2:H$101)</f>
@@ -994,11 +1078,11 @@
       </c>
       <c r="B5" s="22">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>6.13E-3</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(DATA!F$2:F$101)</f>
-        <v>9.2999999999999992E-3</v>
+        <v>1.7638000000000001E-2</v>
       </c>
       <c r="D5" s="8">
         <f>MAX(DATA!G$2:G$101)</f>
@@ -1006,7 +1090,7 @@
       </c>
       <c r="E5" s="8">
         <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.31569000000000003</v>
+        <v>0.41836000000000001</v>
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
@@ -1019,19 +1103,19 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>2.9296000000000027E-3</v>
+        <v>2.6254999999999976E-3</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.4066299999999992E-3</v>
+        <v>5.3925200000000031E-3</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.99145474999999961</v>
+        <v>0.96769224999999981</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>6.6592040000000047E-2</v>
+        <v>0.18818311999999984</v>
       </c>
       <c r="F6" s="8" t="e">
         <f>AVERAGE(DATA!I$2:I$101)</f>
@@ -1044,19 +1128,19 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>3.0899999999999999E-3</v>
+        <v>2.66E-3</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>1.2199999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.99487800000000004</v>
+        <v>0.97730899999999998</v>
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>4.5115000000000002E-2</v>
+        <v>0.1596485</v>
       </c>
       <c r="F7" s="8" t="e">
         <f>MEDIAN(DATA!I$2:I$101)</f>
@@ -1069,19 +1153,19 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>6.4265535008268561E-4</v>
+        <v>6.7663065287056046E-4</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>9.8988812402251184E-4</v>
+        <v>5.0641522019829206E-3</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>8.0287192839773227E-3</v>
+        <v>2.5924951015558185E-2</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>4.918503115148061E-2</v>
+        <v>0.1276682165514976</v>
       </c>
       <c r="F8" s="13" t="e">
         <f>STDEV(DATA!I$2:I$101)</f>
@@ -1189,16 +1273,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>2226854.6668909998</v>
+        <v>2226857.2551600002</v>
       </c>
       <c r="E2" s="21">
         <v>1.8799999999999999E-3</v>
@@ -1218,118 +1302,118 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>2226854.6668909998</v>
+        <v>2226884.3696670001</v>
       </c>
       <c r="E3" s="22">
-        <v>1.8799999999999999E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="F3" s="22">
-        <v>0</v>
+        <v>1.2E-5</v>
       </c>
       <c r="G3" s="22">
-        <v>1</v>
+        <v>0.99916300000000002</v>
       </c>
       <c r="H3" s="9">
-        <v>0</v>
+        <v>8.8070000000000006E-3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>2226885.8489919999</v>
+        <v>2228266.8833070002</v>
       </c>
       <c r="E4" s="22">
-        <v>2.4299999999999999E-3</v>
+        <v>2.8600000000000001E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>1.4E-5</v>
+        <v>6.3299999999999999E-4</v>
       </c>
       <c r="G4" s="22">
-        <v>0.99932799999999999</v>
+        <v>0.99606700000000004</v>
       </c>
       <c r="H4" s="9">
-        <v>6.9220000000000002E-3</v>
+        <v>3.6483000000000002E-2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>2227296.7501719999</v>
+        <v>2228702.9486790001</v>
       </c>
       <c r="E5" s="22">
-        <v>2.8400000000000001E-3</v>
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="F5" s="22">
-        <v>1.9900000000000001E-4</v>
+        <v>8.2899999999999998E-4</v>
       </c>
       <c r="G5" s="22">
-        <v>0.99810900000000002</v>
+        <v>0.99587199999999998</v>
       </c>
       <c r="H5" s="9">
-        <v>1.9146E-2</v>
+        <v>3.7984999999999998E-2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>2227296.7501719999</v>
+        <v>2229084.568062</v>
       </c>
       <c r="E6" s="22">
-        <v>2.8400000000000001E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>1.9900000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.99810900000000002</v>
+        <v>0.97899000000000003</v>
       </c>
       <c r="H6" s="9">
-        <v>1.9146E-2</v>
+        <v>0.15060399999999999</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1337,71 +1421,71 @@
         <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>2227296.7501719999</v>
+        <v>2229106.0498170001</v>
       </c>
       <c r="E7" s="22">
-        <v>2.8400000000000001E-3</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>1.9900000000000001E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.99810900000000002</v>
+        <v>0.981626</v>
       </c>
       <c r="H7" s="9">
-        <v>1.9146E-2</v>
+        <v>0.13497500000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2229106.0498170001</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3.5699999999999998E-3</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1.01E-3</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.981626</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.13497500000000001</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2228564.7478319998</v>
-      </c>
-      <c r="E8" s="22">
-        <v>3.5500000000000002E-3</v>
-      </c>
-      <c r="F8" s="22">
-        <v>7.6800000000000002E-4</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.99567799999999995</v>
-      </c>
-      <c r="H8" s="9">
-        <v>3.9365999999999998E-2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>2229103.4420039998</v>
+        <v>2229106.0498170001</v>
       </c>
       <c r="E9" s="22">
         <v>3.5699999999999998E-3</v>
@@ -1413,24 +1497,24 @@
         <v>0.981626</v>
       </c>
       <c r="H9" s="9">
-        <v>0.13497600000000001</v>
+        <v>0.13497500000000001</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>2229103.4420039998</v>
+        <v>2229106.0498170001</v>
       </c>
       <c r="E10" s="22">
         <v>3.5699999999999998E-3</v>
@@ -1442,24 +1526,24 @@
         <v>0.981626</v>
       </c>
       <c r="H10" s="9">
-        <v>0.13497600000000001</v>
+        <v>0.13497500000000001</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>2229103.4420039998</v>
+        <v>2229106.0498170001</v>
       </c>
       <c r="E11" s="22">
         <v>3.5699999999999998E-3</v>
@@ -1471,114 +1555,114 @@
         <v>0.981626</v>
       </c>
       <c r="H11" s="9">
-        <v>0.13497600000000001</v>
+        <v>0.13497500000000001</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>2229571.111151</v>
+        <v>2229106.0498170001</v>
       </c>
       <c r="E12" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.981626</v>
       </c>
       <c r="H12" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.13497500000000001</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>2229571.111151</v>
+        <v>2229106.0498170001</v>
       </c>
       <c r="E13" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.5699999999999998E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.01E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.981626</v>
       </c>
       <c r="H13" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.13497500000000001</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>2229571.111151</v>
+        <v>2229108.7429180001</v>
       </c>
       <c r="E14" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.6700000000000001E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.011E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.98076300000000005</v>
       </c>
       <c r="H14" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.14114099999999999</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E15" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F15" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1590,24 +1674,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E16" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F16" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1619,24 +1703,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E17" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F17" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1648,24 +1732,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E18" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F18" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1677,24 +1761,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E19" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F19" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1706,24 +1790,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E20" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F20" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1735,24 +1819,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E21" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F21" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1764,24 +1848,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E22" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F22" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1793,24 +1877,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E23" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F23" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1822,24 +1906,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E24" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F24" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1851,24 +1935,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E25" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F25" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1880,24 +1964,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E26" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F26" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1909,24 +1993,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E27" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F27" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1938,24 +2022,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E28" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F28" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1967,24 +2051,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E29" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F29" s="22">
         <v>1.2199999999999999E-3</v>
@@ -1996,24 +2080,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E30" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F30" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2025,24 +2109,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E31" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F31" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2054,24 +2138,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E32" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F32" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2083,24 +2167,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E33" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F33" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2112,24 +2196,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E34" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F34" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2141,24 +2225,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E35" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F35" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2170,24 +2254,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E36" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F36" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2199,24 +2283,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E37" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F37" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2228,24 +2312,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E38" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F38" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2257,24 +2341,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E39" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F39" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2286,24 +2370,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E40" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F40" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2315,24 +2399,24 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>2229571.111151</v>
+        <v>2229573.7314380002</v>
       </c>
       <c r="E41" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0799999999999998E-3</v>
       </c>
       <c r="F41" s="22">
         <v>1.2199999999999999E-3</v>
@@ -2344,1689 +2428,1689 @@
         <v>4.5115000000000002E-2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>2229571.111151</v>
+        <v>2229663.8907420002</v>
       </c>
       <c r="E42" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="G42" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.99200900000000003</v>
       </c>
       <c r="H42" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>6.9042000000000006E-2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>2229571.111151</v>
+        <v>2229663.8907420002</v>
       </c>
       <c r="E43" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.99200900000000003</v>
       </c>
       <c r="H43" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>6.9042000000000006E-2</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>2229571.111151</v>
+        <v>2229781.3152020001</v>
       </c>
       <c r="E44" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.3129999999999999E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97839500000000001</v>
       </c>
       <c r="H44" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.153609</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>2229571.111151</v>
+        <v>2230092.0626300001</v>
       </c>
       <c r="E45" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.4530000000000001E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.98159099999999999</v>
       </c>
       <c r="H45" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.13441700000000001</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>2229571.111151</v>
+        <v>2230092.0626300001</v>
       </c>
       <c r="E46" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.4530000000000001E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.98159099999999999</v>
       </c>
       <c r="H46" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.13441700000000001</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>2229571.111151</v>
+        <v>2230661.923554</v>
       </c>
       <c r="E47" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.709E-3</v>
       </c>
       <c r="G47" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.99131000000000002</v>
       </c>
       <c r="H47" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>7.3668999999999998E-2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>2229571.111151</v>
+        <v>2230793.4170200001</v>
       </c>
       <c r="E48" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.768E-3</v>
       </c>
       <c r="G48" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.98188799999999998</v>
       </c>
       <c r="H48" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.13180600000000001</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>2229571.111151</v>
+        <v>2230835.9326539999</v>
       </c>
       <c r="E49" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.787E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.98807299999999998</v>
       </c>
       <c r="H49" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>9.6522999999999998E-2</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>2229571.111151</v>
+        <v>2230909.8407200002</v>
       </c>
       <c r="E50" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="G50" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97680400000000001</v>
       </c>
       <c r="H50" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.16226199999999999</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>2229571.111151</v>
+        <v>2231038.2666119998</v>
       </c>
       <c r="E51" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.8779999999999999E-3</v>
       </c>
       <c r="G51" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.98213700000000004</v>
       </c>
       <c r="H51" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.12864999999999999</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>2229571.111151</v>
+        <v>2231581.7449190002</v>
       </c>
       <c r="E52" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.8600000000000001E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>2.1220000000000002E-3</v>
       </c>
       <c r="G52" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97781399999999996</v>
       </c>
       <c r="H52" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.15703500000000001</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>2229571.111151</v>
+        <v>2232485.6849790001</v>
       </c>
       <c r="E53" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.15E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>2.5279999999999999E-3</v>
       </c>
       <c r="G53" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97435499999999997</v>
       </c>
       <c r="H53" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.175787</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>2229571.111151</v>
+        <v>2232905.5674310001</v>
       </c>
       <c r="E54" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>2.7160000000000001E-3</v>
       </c>
       <c r="G54" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97365400000000002</v>
       </c>
       <c r="H54" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.17780899999999999</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>2229571.111151</v>
+        <v>2234337.9268740001</v>
       </c>
       <c r="E55" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>3.359E-3</v>
       </c>
       <c r="G55" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97203099999999998</v>
       </c>
       <c r="H55" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.18981300000000001</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2229571.111151</v>
+        <v>2234382.6189830001</v>
       </c>
       <c r="E56" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.82E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="G56" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97436299999999998</v>
       </c>
       <c r="H56" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.17383100000000001</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2229571.111151</v>
+        <v>2235284.2906169998</v>
       </c>
       <c r="E57" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>3.784E-3</v>
       </c>
       <c r="G57" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.97006999999999999</v>
       </c>
       <c r="H57" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.19967199999999999</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>2229571.111151</v>
+        <v>2235344.6357100001</v>
       </c>
       <c r="E58" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>3.8110000000000002E-3</v>
       </c>
       <c r="G58" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.96795500000000001</v>
       </c>
       <c r="H58" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.20938499999999999</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>2229571.111151</v>
+        <v>2237117.60598</v>
       </c>
       <c r="E59" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>4.6080000000000001E-3</v>
       </c>
       <c r="G59" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.96306499999999995</v>
       </c>
       <c r="H59" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.232627</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2229571.111151</v>
+        <v>2237277.6466410002</v>
       </c>
       <c r="E60" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.42E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>4.679E-3</v>
       </c>
       <c r="G60" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.96514800000000001</v>
       </c>
       <c r="H60" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.21854399999999999</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>2229571.111151</v>
+        <v>2237928.2449770002</v>
       </c>
       <c r="E61" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.4400000000000001E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>4.9719999999999999E-3</v>
       </c>
       <c r="G61" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.96169400000000005</v>
       </c>
       <c r="H61" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.23763600000000001</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2229571.111151</v>
+        <v>2238141.2772519998</v>
       </c>
       <c r="E62" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>5.0670000000000003E-3</v>
       </c>
       <c r="G62" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.96387900000000004</v>
       </c>
       <c r="H62" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.22483900000000001</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2229571.111151</v>
+        <v>2239131.4826219999</v>
       </c>
       <c r="E63" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.66E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>5.5120000000000004E-3</v>
       </c>
       <c r="G63" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.95849899999999999</v>
       </c>
       <c r="H63" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.25022100000000003</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2229571.111151</v>
+        <v>2239408.7551950002</v>
       </c>
       <c r="E64" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2300000000000002E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>5.6360000000000004E-3</v>
       </c>
       <c r="G64" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.95760599999999996</v>
       </c>
       <c r="H64" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.25540099999999999</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2229571.111151</v>
+        <v>2240682.7137099998</v>
       </c>
       <c r="E65" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>6.2090000000000001E-3</v>
       </c>
       <c r="G65" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.95799900000000004</v>
       </c>
       <c r="H65" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.25083299999999997</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2229571.111151</v>
+        <v>2242500.0420220001</v>
       </c>
       <c r="E66" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.31E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>7.025E-3</v>
       </c>
       <c r="G66" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.95228599999999997</v>
       </c>
       <c r="H66" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.27871200000000002</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>2229571.111151</v>
+        <v>2243073.4501570002</v>
       </c>
       <c r="E67" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2820000000000003E-3</v>
       </c>
       <c r="G67" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.94924900000000001</v>
       </c>
       <c r="H67" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.29206300000000002</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>2229571.111151</v>
+        <v>2244600.6404490001</v>
       </c>
       <c r="E68" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.8300000000000001E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>7.9679999999999994E-3</v>
       </c>
       <c r="G68" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.94720199999999999</v>
       </c>
       <c r="H68" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.29978700000000003</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2229571.111151</v>
+        <v>2247958.5314930002</v>
       </c>
       <c r="E69" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.8800000000000002E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>9.476E-3</v>
       </c>
       <c r="G69" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.94230599999999998</v>
       </c>
       <c r="H69" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.31737199999999999</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>2229571.111151</v>
+        <v>2250574.559938</v>
       </c>
       <c r="E70" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>3.0300000000000001E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.0651000000000001E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.94085099999999999</v>
       </c>
       <c r="H70" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.31352400000000002</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>2229571.111151</v>
+        <v>2251087.2334480002</v>
       </c>
       <c r="E71" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.0881E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.94695099999999999</v>
       </c>
       <c r="H71" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.30755700000000002</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>2229571.111151</v>
+        <v>2251508.6967290002</v>
       </c>
       <c r="E72" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93565699999999996</v>
       </c>
       <c r="H72" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.34228799999999998</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>2229571.111151</v>
+        <v>2251508.6967290002</v>
       </c>
       <c r="E73" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93565699999999996</v>
       </c>
       <c r="H73" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.34228799999999998</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>2229571.111151</v>
+        <v>2251508.6967290002</v>
       </c>
       <c r="E74" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93565699999999996</v>
       </c>
       <c r="H74" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.34228799999999998</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>2229571.111151</v>
+        <v>2251508.6967290002</v>
       </c>
       <c r="E75" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93565699999999996</v>
       </c>
       <c r="H75" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.34228799999999998</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>2229571.111151</v>
+        <v>2251508.6967290002</v>
       </c>
       <c r="E76" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93565699999999996</v>
       </c>
       <c r="H76" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.34228799999999998</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>2229571.111151</v>
+        <v>2251508.6967290002</v>
       </c>
       <c r="E77" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.107E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93565699999999996</v>
       </c>
       <c r="H77" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.34228799999999998</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>2229571.111151</v>
+        <v>2252040.5049749999</v>
       </c>
       <c r="E78" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.1309E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93658200000000003</v>
       </c>
       <c r="H78" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.33107500000000001</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>2229571.111151</v>
+        <v>2252445.2741979999</v>
       </c>
       <c r="E79" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.1490999999999999E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93647000000000002</v>
       </c>
       <c r="H79" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.33008599999999999</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>2229571.111151</v>
+        <v>2252615.2138160001</v>
       </c>
       <c r="E80" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.65E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.1566999999999999E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93637400000000004</v>
       </c>
       <c r="H80" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.33040799999999998</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>2229571.111151</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E81" s="22">
-        <v>3.0899999999999999E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>1.2199999999999999E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.99487800000000004</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H81" s="9">
-        <v>4.5115000000000002E-2</v>
+        <v>0.331152</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>2230089.44857</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E82" s="22">
-        <v>1.1299999999999999E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>1.4530000000000001E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.98159099999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H82" s="9">
-        <v>0.13441700000000001</v>
+        <v>0.331152</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>2230089.44857</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E83" s="22">
-        <v>1.1299999999999999E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>1.4530000000000001E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.98159099999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H83" s="9">
-        <v>0.13441700000000001</v>
+        <v>0.331152</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>2230385.1643300001</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E84" s="22">
-        <v>4.2900000000000004E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>1.585E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.97724</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H84" s="9">
-        <v>0.158053</v>
+        <v>0.331152</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>2230468.7408420001</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E85" s="22">
-        <v>2.64E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>1.6230000000000001E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.98142099999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H85" s="9">
-        <v>0.13535700000000001</v>
+        <v>0.331152</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>2230533.4199669999</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E86" s="22">
-        <v>2.81E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>1.652E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.98213099999999998</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H86" s="9">
-        <v>0.12971099999999999</v>
+        <v>0.331152</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>2230660.6803509998</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E87" s="22">
-        <v>1.33E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>1.709E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.98170299999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H87" s="9">
-        <v>0.133523</v>
+        <v>0.331152</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>2230660.6803509998</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E88" s="22">
-        <v>1.33E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>1.709E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.98170299999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H88" s="9">
-        <v>0.133523</v>
+        <v>0.331152</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>2230660.6803509998</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E89" s="22">
-        <v>1.33E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>1.709E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.98170299999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H89" s="9">
-        <v>0.133523</v>
+        <v>0.331152</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>2230660.6803509998</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E90" s="22">
-        <v>1.33E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>1.709E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.98170299999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H90" s="9">
-        <v>0.133523</v>
+        <v>0.331152</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>2230660.6803509998</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E91" s="22">
-        <v>1.33E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>1.709E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.98170299999999999</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H91" s="9">
-        <v>0.133523</v>
+        <v>0.331152</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>2230909.4091989999</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E92" s="22">
-        <v>1.7899999999999999E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>1.8209999999999999E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.98196099999999997</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H92" s="9">
-        <v>0.13064999999999999</v>
+        <v>0.331152</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>2232097.117143</v>
+        <v>2252923.4284709999</v>
       </c>
       <c r="E93" s="22">
-        <v>2.3400000000000001E-3</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>2.3540000000000002E-3</v>
+        <v>1.1705E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.98280400000000001</v>
+        <v>0.93614600000000003</v>
       </c>
       <c r="H93" s="9">
-        <v>0.12790000000000001</v>
+        <v>0.331152</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>2232557.23875</v>
+        <v>2253021.988692</v>
       </c>
       <c r="E94" s="22">
-        <v>2.6199999999999999E-3</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>2.5609999999999999E-3</v>
+        <v>1.175E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.98100500000000002</v>
+        <v>0.93817399999999995</v>
       </c>
       <c r="H94" s="9">
-        <v>0.13783200000000001</v>
+        <v>0.3412</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>2232670.5286010001</v>
+        <v>2253271.0322759999</v>
       </c>
       <c r="E95" s="22">
-        <v>2.15E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>2.6120000000000002E-3</v>
+        <v>1.1861E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.98452799999999996</v>
+        <v>0.939141</v>
       </c>
       <c r="H95" s="9">
-        <v>0.117991</v>
+        <v>0.33988499999999999</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>2233082.842433</v>
+        <v>2255565.9800010002</v>
       </c>
       <c r="E96" s="22">
-        <v>2.3E-3</v>
+        <v>2.5300000000000001E-3</v>
       </c>
       <c r="F96" s="22">
-        <v>2.797E-3</v>
+        <v>1.2892000000000001E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.98197500000000004</v>
+        <v>0.93516900000000003</v>
       </c>
       <c r="H96" s="9">
-        <v>0.13250100000000001</v>
+        <v>0.354128</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>2233082.842433</v>
+        <v>2256817.8854450001</v>
       </c>
       <c r="E97" s="22">
-        <v>2.3E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="F97" s="22">
-        <v>2.797E-3</v>
+        <v>1.3454000000000001E-2</v>
       </c>
       <c r="G97" s="22">
-        <v>0.98197500000000004</v>
+        <v>0.92991299999999999</v>
       </c>
       <c r="H97" s="9">
-        <v>0.13250100000000001</v>
+        <v>0.36856</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>2233271.0081179999</v>
+        <v>2256817.8854450001</v>
       </c>
       <c r="E98" s="22">
-        <v>3.0599999999999998E-3</v>
+        <v>1.98E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>2.8809999999999999E-3</v>
+        <v>1.3454000000000001E-2</v>
       </c>
       <c r="G98" s="22">
-        <v>0.97289800000000004</v>
+        <v>0.92991299999999999</v>
       </c>
       <c r="H98" s="9">
-        <v>0.184446</v>
+        <v>0.36856</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>2234983.8738469998</v>
+        <v>2264491.4371989998</v>
       </c>
       <c r="E99" s="22">
-        <v>6.13E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="F99" s="22">
-        <v>3.6510000000000002E-3</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="G99" s="22">
-        <v>0.97212200000000004</v>
+        <v>0.92021699999999995</v>
       </c>
       <c r="H99" s="9">
-        <v>0.18448200000000001</v>
+        <v>0.40891699999999997</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4034,57 +4118,57 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="23">
-        <v>2235246.6176700001</v>
+        <v>2265805.1921000001</v>
       </c>
       <c r="E100" s="22">
-        <v>2.82E-3</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="F100" s="22">
-        <v>3.7690000000000002E-3</v>
+        <v>1.7489999999999999E-2</v>
       </c>
       <c r="G100" s="22">
-        <v>0.97529399999999999</v>
+        <v>0.91878400000000005</v>
       </c>
       <c r="H100" s="9">
-        <v>0.168937</v>
+        <v>0.41459400000000002</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="23">
-        <v>2247565.2926969999</v>
+        <v>2266135.3402260002</v>
       </c>
       <c r="E101" s="22">
-        <v>3.5300000000000002E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F101" s="22">
-        <v>9.2999999999999992E-3</v>
+        <v>1.7638000000000001E-2</v>
       </c>
       <c r="G101" s="22">
-        <v>0.94275299999999995</v>
+        <v>0.91792099999999999</v>
       </c>
       <c r="H101" s="9">
-        <v>0.31569000000000003</v>
+        <v>0.41836000000000001</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
